--- a/biology/Zoologie/Aetiocetidae/Aetiocetidae.xlsx
+++ b/biology/Zoologie/Aetiocetidae/Aetiocetidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aétiocétidés
-Les Aetiocetidae sont une famille éteinte de mysticètes à dents ayant vécu durant l'Oligocène[1],[2].
+Les Aetiocetidae sont une famille éteinte de mysticètes à dents ayant vécu durant l'Oligocène,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces cétacés ont vécu dans le nord de l'actuel océan Pacifique et variaient en taille de 3 à 8 mètres de long. Bon nombre des spécimens décrits qui ont été découverts datent de l'Oligocène supérieur[3],[4] de la formation japonaise de Morawan (en). D'autres mysticètes à dents aujourd'hui éteints formellement décrits de cette époque sont plus petits, mesurant de 3 à 4 mètres de longueur. Des mysticètes avec de vrais fanons sont observés dans des fossiles de l'Oligocène supérieur.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces cétacés ont vécu dans le nord de l'actuel océan Pacifique et variaient en taille de 3 à 8 mètres de long. Bon nombre des spécimens décrits qui ont été découverts datent de l'Oligocène supérieur, de la formation japonaise de Morawan (en). D'autres mysticètes à dents aujourd'hui éteints formellement décrits de cette époque sont plus petits, mesurant de 3 à 4 mètres de longueur. Des mysticètes avec de vrais fanons sont observés dans des fossiles de l'Oligocène supérieur.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La monophylie de la famille est encore incertaine, tout comme la relation évolutive entre les premières mysticètes à dents (Aetiocetidae, Mammalodontidae et Llanocetidae) et les premières et existantes baleines à fanons édentées[5]. Cependant, les analyses cladistiques de Coronodon et Mystacodon semblent indiquer que les Aetiocetidae et les Llanocetidae sont plus étroitement liés au groupe-couronne Mysticeti qu'à Mammalodontidae, Coronodon et Mystacodon[6],[7].
-Ci-dessous, un cladogramme montrant le positionnement de Janjucetus à la base des Mysticeti, selon Berta et al., 2016[8] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La monophylie de la famille est encore incertaine, tout comme la relation évolutive entre les premières mysticètes à dents (Aetiocetidae, Mammalodontidae et Llanocetidae) et les premières et existantes baleines à fanons édentées. Cependant, les analyses cladistiques de Coronodon et Mystacodon semblent indiquer que les Aetiocetidae et les Llanocetidae sont plus étroitement liés au groupe-couronne Mysticeti qu'à Mammalodontidae, Coronodon et Mystacodon,.
+Ci-dessous, un cladogramme montrant le positionnement de Janjucetus à la base des Mysticeti, selon Berta et al., 2016 :
 </t>
         </is>
       </c>
